--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value214.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value214.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.37314444952141</v>
+        <v>1.592524647712708</v>
       </c>
       <c r="B1">
-        <v>1.744768640500874</v>
+        <v>3.671234130859375</v>
       </c>
       <c r="C1">
-        <v>1.724065636430355</v>
+        <v>5.452422618865967</v>
       </c>
       <c r="D1">
-        <v>1.931690347795085</v>
+        <v>1.347572088241577</v>
       </c>
       <c r="E1">
-        <v>1.909522776282138</v>
+        <v>0.78338223695755</v>
       </c>
     </row>
   </sheetData>
